--- a/absorption and emission spectra/data.xlsx
+++ b/absorption and emission spectra/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\optics lab\P_345-P_343-Laboratory-Resources\absorption and emission spectra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB172F55-1FEB-47EE-A708-7BD9D972D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8806B08A-2550-4517-81CB-C829CA404E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>S No</t>
   </si>
@@ -69,6 +69,9 @@
     <t>E(in eV)</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>λ_given(Å)</t>
   </si>
   <si>
@@ -87,13 +90,22 @@
     <t>wave number(cm^-1)</t>
   </si>
   <si>
-    <t>difference in wave number(cm^-1)</t>
-  </si>
-  <si>
     <t>f(N/m)</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Difference in wave number(cm^-1)</t>
+  </si>
+  <si>
+    <t>delta nu</t>
+  </si>
+  <si>
+    <t>std nu</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -212,7 +224,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +512,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C13" sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,7 +676,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,16 +693,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -706,6 +722,10 @@
       <c r="E2" s="7">
         <v>5782</v>
       </c>
+      <c r="F2">
+        <f>100*ABS(E2-D2)/E2</f>
+        <v>0.44245416810791993</v>
+      </c>
       <c r="G2" s="1">
         <v>5800</v>
       </c>
@@ -730,6 +750,10 @@
       <c r="E3" s="7">
         <v>5782</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="1">100*ABS(E3-D3)/E3</f>
+        <v>9.4581459702531193E-2</v>
+      </c>
       <c r="G3" s="1">
         <v>5800</v>
       </c>
@@ -751,6 +775,10 @@
       <c r="E4" s="7">
         <v>5700</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.3408771929832913E-2</v>
+      </c>
       <c r="G4" s="1">
         <v>5800</v>
       </c>
@@ -772,6 +800,10 @@
       <c r="E5" s="7">
         <v>5554</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.21992617933020414</v>
+      </c>
       <c r="G5" s="1">
         <v>5344</v>
       </c>
@@ -793,6 +825,10 @@
       <c r="E6" s="7">
         <v>5292</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.0561224489791737E-2</v>
+      </c>
       <c r="G6" s="1">
         <v>5282</v>
       </c>
@@ -814,6 +850,10 @@
       <c r="E7" s="7">
         <v>5218</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>7.244729781526163E-2</v>
+      </c>
       <c r="G7" s="1">
         <v>5202</v>
       </c>
@@ -835,6 +875,10 @@
       <c r="E8" s="7">
         <v>5153</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.17813506695128634</v>
+      </c>
       <c r="G8" s="1">
         <v>5178</v>
       </c>
@@ -856,6 +900,10 @@
       <c r="E9" s="7">
         <v>5105</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.22457002938295081</v>
+      </c>
       <c r="G9" s="1">
         <v>5178</v>
       </c>
@@ -877,6 +925,10 @@
       <c r="E10" s="7">
         <v>5016</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.65971491228070267</v>
+      </c>
       <c r="G10" s="1">
         <v>5178</v>
       </c>
@@ -898,6 +950,10 @@
       <c r="E11" s="7">
         <v>4865</v>
       </c>
+      <c r="F11">
+        <f>100*ABS(E11-D11)/E11</f>
+        <v>1.5040966084275371</v>
+      </c>
       <c r="G11" s="1">
         <v>4759</v>
       </c>
@@ -919,6 +975,10 @@
       <c r="E12" s="7">
         <v>4704</v>
       </c>
+      <c r="F12">
+        <f>100*ABS(E12-D12)/E12</f>
+        <v>0.15666879251701091</v>
+      </c>
       <c r="G12" s="1">
         <v>4759</v>
       </c>
@@ -940,6 +1000,10 @@
       <c r="E13" s="7">
         <v>4650</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.41045806451612771</v>
+      </c>
       <c r="G13" s="1">
         <v>4625</v>
       </c>
@@ -961,6 +1025,10 @@
       <c r="E14" s="7">
         <v>4587</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.35814911706999109</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
@@ -979,6 +1047,10 @@
       <c r="E15" s="7">
         <v>4530</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.43643046357616189</v>
+      </c>
       <c r="G15" s="1">
         <v>4525</v>
       </c>
@@ -1000,6 +1072,10 @@
       <c r="E16" s="7">
         <v>4508</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.39672360248446564</v>
+      </c>
       <c r="G16" s="1">
         <v>4513</v>
       </c>
@@ -1021,6 +1097,10 @@
       <c r="E17" s="7">
         <v>4480</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.22317633928571873</v>
+      </c>
       <c r="G17" s="1">
         <v>4471</v>
       </c>
@@ -1042,6 +1122,10 @@
       <c r="E18" s="7">
         <v>4415</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.12095809739523992</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
@@ -1060,6 +1144,10 @@
       <c r="E19" s="7">
         <v>4377</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.17291066940826841</v>
+      </c>
       <c r="G19" s="1">
         <v>4327</v>
       </c>
@@ -1080,6 +1168,10 @@
       </c>
       <c r="E20" s="7">
         <v>4275</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.14358596491229303</v>
       </c>
       <c r="G20" s="1">
         <v>4108</v>
@@ -1095,7 +1187,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,13 +1207,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1141,6 +1233,10 @@
       <c r="E2" s="9">
         <v>6441</v>
       </c>
+      <c r="F2">
+        <f>100*ABS(E2-D2)/E2</f>
+        <v>0.46572426641825798</v>
+      </c>
       <c r="G2" s="4">
         <v>6362.34</v>
       </c>
@@ -1164,6 +1260,10 @@
       <c r="E3" s="9">
         <v>6441</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="1">100*ABS(E3-D3)/E3</f>
+        <v>0.62186461729544762</v>
+      </c>
       <c r="G3" s="4">
         <v>6362.34</v>
       </c>
@@ -1187,6 +1287,10 @@
       <c r="E4" s="9">
         <v>5789</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.14727414061150704</v>
+      </c>
       <c r="G4" s="4">
         <v>5782.13</v>
       </c>
@@ -1210,6 +1314,10 @@
       <c r="E5" s="9">
         <v>5789</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.6451891518390853E-2</v>
+      </c>
       <c r="G5" s="4">
         <v>5782.13</v>
       </c>
@@ -1233,6 +1341,10 @@
       <c r="E6" s="9">
         <v>5789</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.4162601485576054</v>
+      </c>
       <c r="G6" s="4">
         <v>5700.24</v>
       </c>
@@ -1256,6 +1368,10 @@
       <c r="E7" s="9">
         <v>5789</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.5899861806875191</v>
+      </c>
       <c r="G7" s="4">
         <v>5700.24</v>
       </c>
@@ -1279,6 +1395,10 @@
       <c r="E8" s="9">
         <v>5385</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.677331476323124</v>
+      </c>
       <c r="G8" s="4">
         <v>5218.2</v>
       </c>
@@ -1302,6 +1422,10 @@
       <c r="E9" s="9">
         <v>5385</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.8640909935004644</v>
+      </c>
       <c r="G9" s="4">
         <v>5218.2</v>
       </c>
@@ -1325,6 +1449,10 @@
       <c r="E10" s="9">
         <v>5219</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.10110557578080756</v>
+      </c>
       <c r="G10" s="4">
         <v>5218.2</v>
       </c>
@@ -1348,6 +1476,10 @@
       <c r="E11" s="9">
         <v>5219</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9.159417512934187E-2</v>
+      </c>
       <c r="G11" s="4">
         <v>5218.2</v>
       </c>
@@ -1371,6 +1503,10 @@
       <c r="E12" s="9">
         <v>5199</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.86790344296980182</v>
+      </c>
       <c r="G12" s="4">
         <v>5153.24</v>
       </c>
@@ -1394,6 +1530,10 @@
       <c r="E13" s="9">
         <v>5135</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.17177604673807625</v>
+      </c>
       <c r="G13" s="4">
         <v>5153.24</v>
       </c>
@@ -1417,6 +1557,10 @@
       <c r="E14" s="9">
         <v>5135</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.61163193768256763</v>
+      </c>
       <c r="G14" s="4">
         <v>5105.54</v>
       </c>
@@ -1440,6 +1584,10 @@
       <c r="E15" s="9">
         <v>5135</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.80748393378772421</v>
+      </c>
       <c r="G15" s="4">
         <v>5105.54</v>
       </c>
@@ -1463,6 +1611,10 @@
       <c r="E16" s="9">
         <v>4787</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.31089826613745797</v>
+      </c>
       <c r="G16" s="4">
         <v>4810.53</v>
       </c>
@@ -1486,6 +1638,10 @@
       <c r="E17" s="9">
         <v>4762</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.62632717345653766</v>
+      </c>
       <c r="G17" s="4">
         <v>4810.53</v>
       </c>
@@ -1509,6 +1665,10 @@
       <c r="E18" s="9">
         <v>4708</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>7.1573916737472251E-2</v>
+      </c>
       <c r="G18" s="4">
         <v>4722.16</v>
       </c>
@@ -1532,6 +1692,10 @@
       <c r="E19" s="9">
         <v>4708</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.14204120645710502</v>
+      </c>
       <c r="G19" s="4">
         <v>4722.16</v>
       </c>
@@ -1555,6 +1719,10 @@
       <c r="E20" s="9">
         <v>4674</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>6.1153187847665214E-2</v>
+      </c>
       <c r="G20" s="4">
         <v>4680.1400000000003</v>
       </c>
@@ -1576,7 +1744,11 @@
         <v>4661.0847000000003</v>
       </c>
       <c r="E21" s="9">
-        <v>4521</v>
+        <v>4674</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.27632220795891443</v>
       </c>
       <c r="G21" s="4">
         <v>4680.1400000000003</v>
@@ -1591,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86EA2F-0DC2-485B-BB18-0402204FD68E}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,23 +1777,24 @@
     <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
@@ -1630,22 +1803,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="9">
         <v>6250</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <f>1.0057*B2 -35.5343</f>
         <v>6250.0906999999997</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <f>10^8*1/C2</f>
         <v>15999.767811369522</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="11">
@@ -1655,23 +1828,27 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>SQRT(B2*10^-10 * 6.626*10^-34 * 3* 10^8 * 0.0037/((C2*10^-10)^2) + ( 6.626*10^-34 * 3* 10^8 * 20.07*10^-10)/((C2*10^-10)^2))/(1.6*10^-10)</f>
+        <v>0.29301967334280687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="9">
         <v>6200</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <f t="shared" ref="C3:C32" si="0">1.0057*B3 -35.5343</f>
         <v>6199.8056999999999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <f t="shared" ref="D3:D32" si="1">10^8*1/C3</f>
         <v>16129.537736964887</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <f>D3-D2</f>
         <v>129.76992559536484</v>
       </c>
@@ -1683,28 +1860,28 @@
         <f>1.053*10^(-25)*(2*PI()*3*10^8 * E3*100)^2</f>
         <v>63.005538619277047</v>
       </c>
-      <c r="I3">
-        <f>AVERAGE(G3:G32)</f>
-        <v>40.018420940256256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H32" si="3">SQRT(B3*10^-10 * 6.626*10^-34 * 3* 10^8 * 0.0037/((C3*10^-10)^2) + ( 6.626*10^-34 * 3* 10^8 * 20.07*10^-10)/((C3*10^-10)^2))/(1.6*10^-10)</f>
+        <v>0.29476302356454381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>6150</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>6149.5207</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <f t="shared" si="1"/>
         <v>16261.429935507007</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E32" si="3">D4-D3</f>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E32" si="4">D4-D3</f>
         <v>131.89219854212024</v>
       </c>
       <c r="F4" s="11">
@@ -1712,31 +1889,45 @@
         <v>2.0155465958734515</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G32" si="4">1.053*10^(-25)*(2*PI()*3*10^8 * E4*100)^2</f>
+        <f t="shared" ref="G4:G32" si="5">1.053*10^(-25)*(2*PI()*3*10^8 * E4*100)^2</f>
         <v>65.08319019632232</v>
       </c>
-      <c r="J4">
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.29653351020666974</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(G3:G32)</f>
+        <v>40.018420940256256</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="16">
         <f>AVERAGE(E3:E32)</f>
         <v>98.638448595374811</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>6140</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>6139.4637000000002</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <f t="shared" si="1"/>
         <v>16288.067636917536</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" si="3"/>
+      <c r="E5" s="13">
+        <f t="shared" si="4"/>
         <v>26.637701410529189</v>
       </c>
       <c r="F5" s="11">
@@ -1744,31 +1935,38 @@
         <v>2.0188482445361351</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6547529392259821</v>
       </c>
-      <c r="L5" s="14">
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.29689092179784293</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="15">
         <f>F32-F2</f>
         <v>0.36677658129167612</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="9">
         <v>6080</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>6079.1216999999997</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <f t="shared" si="1"/>
         <v>16449.744705719579</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="3"/>
+      <c r="E6" s="13">
+        <f t="shared" si="4"/>
         <v>161.67706880204241</v>
       </c>
       <c r="F6" s="11">
@@ -1776,27 +1974,31 @@
         <v>2.0388875440901808</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97.797436490752773</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>0.29905904564830538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="9">
         <v>6030</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>6028.8366999999998</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <f t="shared" si="1"/>
         <v>16586.947860107077</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="3"/>
+      <c r="E7" s="13">
+        <f t="shared" si="4"/>
         <v>137.20315438749822</v>
       </c>
       <c r="F7" s="11">
@@ -1804,27 +2006,38 @@
         <v>2.0558933887093551</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.430181847623473</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.30089740333141607</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <f>_xlfn.STDEV.P(E3:E32)</f>
+        <v>31.091026429945526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="9">
         <v>5990</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>5988.6086999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <f t="shared" si="1"/>
         <v>16698.369355807135</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="3"/>
+      <c r="E8" s="13">
+        <f t="shared" si="4"/>
         <v>111.42149570005859</v>
       </c>
       <c r="F8" s="11">
@@ -1832,27 +2045,31 @@
         <v>2.0697036881268138</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.448167585759201</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.30238927920170694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>5950</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>5948.3806999999997</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <f t="shared" si="1"/>
         <v>16811.297904991185</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="3"/>
+      <c r="E9" s="13">
+        <f t="shared" si="4"/>
         <v>112.92854918404919</v>
       </c>
       <c r="F9" s="11">
@@ -1860,27 +2077,35 @@
         <v>2.0837007814813071</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.713152782851829</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0.30390039907175154</v>
+      </c>
+      <c r="J9">
+        <f>SQRT(H2^2 + H32^2)</f>
+        <v>0.44317142079904825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="9">
         <v>5900</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>5898.0956999999999</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <f t="shared" si="1"/>
         <v>16954.624863072331</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="3"/>
+      <c r="E10" s="13">
+        <f t="shared" si="4"/>
         <v>143.32695808114659</v>
       </c>
       <c r="F10" s="11">
@@ -1888,27 +2113,35 @@
         <v>2.1014656498602293</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.857523169007422</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.30581695306892304</v>
+      </c>
+      <c r="L10">
+        <f>2*L4*M7/O4</f>
+        <v>25.227764646666071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="9">
         <v>5860</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>5857.8676999999998</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <f t="shared" si="1"/>
         <v>17071.058125809159</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="3"/>
+      <c r="E11" s="13">
+        <f t="shared" si="4"/>
         <v>116.4332627368276</v>
       </c>
       <c r="F11" s="11">
@@ -1916,27 +2149,31 @@
         <v>2.1158971400358402</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.720643227278366</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.30737280719419779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="9">
         <v>5830</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>5827.6967000000004</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <f t="shared" si="1"/>
         <v>17159.43796457355</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="3"/>
+      <c r="E12" s="13">
+        <f t="shared" si="4"/>
         <v>88.379838764391025</v>
       </c>
       <c r="F12" s="11">
@@ -1944,27 +2181,31 @@
         <v>2.1268515077557697</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.223822890105041</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.30855315726958654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="9">
         <v>5800</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>5797.5257000000001</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <f t="shared" si="1"/>
         <v>17248.737681318082</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="3"/>
+      <c r="E13" s="13">
+        <f t="shared" si="4"/>
         <v>89.299716744531906</v>
       </c>
       <c r="F13" s="11">
@@ -1972,27 +2213,31 @@
         <v>2.1379198910904909</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.835325478051526</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.30974524173274537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="9">
         <v>5760</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>5757.2977000000001</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <f t="shared" si="1"/>
         <v>17369.259887325265</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="3"/>
+      <c r="E14" s="13">
+        <f t="shared" si="4"/>
         <v>120.52220600718283</v>
       </c>
       <c r="F14" s="11">
@@ -2000,27 +2245,31 @@
         <v>2.1528581912896958</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.345646799648378</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>0.31135325618324161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="9">
         <v>5730</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>5727.1266999999998</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <f t="shared" si="1"/>
         <v>17460.762654334154</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="3"/>
+      <c r="E15" s="13">
+        <f t="shared" si="4"/>
         <v>91.50276700888935</v>
       </c>
       <c r="F15" s="11">
@@ -2028,27 +2277,31 @@
         <v>2.1641996348951604</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.325576456458386</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>0.31257343502371499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="9">
         <v>5690</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>5686.8986999999997</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <f t="shared" si="1"/>
         <v>17584.276646250091</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="3"/>
+      <c r="E16" s="13">
+        <f t="shared" si="4"/>
         <v>123.51399191593737</v>
       </c>
       <c r="F16" s="11">
@@ -2056,27 +2309,31 @@
         <v>2.1795087563522673</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.077235954281512</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>0.31421959394217663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="9">
         <v>5650</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>5646.6706999999997</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <f t="shared" si="1"/>
         <v>17709.55051442968</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="3"/>
+      <c r="E17" s="13">
+        <f t="shared" si="4"/>
         <v>125.27386817958904</v>
       </c>
       <c r="F17" s="11">
@@ -2084,27 +2341,31 @@
         <v>2.1950360082337235</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.715341707936965</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>0.31588818324891799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="9">
         <v>5630</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>5626.5567000000001</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <f t="shared" si="1"/>
         <v>17772.859198237529</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="3"/>
+      <c r="E18" s="13">
+        <f t="shared" si="4"/>
         <v>63.308683807848865</v>
       </c>
       <c r="F18" s="11">
@@ -2112,27 +2373,31 @@
         <v>2.20288289517074</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.995370014198253</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>0.31673103790376189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="9">
         <v>5600</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>5596.3856999999998</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <f t="shared" si="1"/>
         <v>17868.67549175533</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="3"/>
+      <c r="E19" s="13">
+        <f t="shared" si="4"/>
         <v>95.816293517800659</v>
       </c>
       <c r="F19" s="11">
@@ -2140,27 +2405,31 @@
         <v>2.2147589850960996</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.348624572685004</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.31800619096063309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="9">
         <v>5570</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>5566.2146999999995</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="13">
         <f t="shared" si="1"/>
         <v>17965.530506755338</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="3"/>
+      <c r="E20" s="13">
+        <f t="shared" si="4"/>
         <v>96.855015000008279</v>
       </c>
       <c r="F20" s="11">
@@ -2168,27 +2437,31 @@
         <v>2.2267638208670473</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.097391714101036</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>0.31929457572655573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="9">
         <v>5540</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>5536.0437000000002</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <f t="shared" si="1"/>
         <v>18063.441226087143</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="3"/>
+      <c r="E21" s="13">
+        <f t="shared" si="4"/>
         <v>97.910719331805012</v>
       </c>
       <c r="F21" s="11">
@@ -2196,27 +2469,31 @@
         <v>2.2388995074475884</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.866673541952053</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.32059640609921869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="9">
         <v>5500</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>5495.8157000000001</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="13">
         <f t="shared" si="1"/>
         <v>18195.661109960438</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="3"/>
+      <c r="E22" s="13">
+        <f t="shared" si="4"/>
         <v>132.21988387329475</v>
       </c>
       <c r="F22" s="11">
@@ -2224,27 +2501,31 @@
         <v>2.2552876933515664</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.40698948282251</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.32235347378077328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="9">
         <v>5470</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>5465.6446999999998</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="13">
         <f t="shared" si="1"/>
         <v>18296.103294090815</v>
       </c>
-      <c r="E23" s="11">
-        <f t="shared" si="3"/>
+      <c r="E23" s="13">
+        <f t="shared" si="4"/>
         <v>100.44218413037743</v>
       </c>
       <c r="F23" s="11">
@@ -2252,27 +2533,31 @@
         <v>2.2677371460201803</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.745302757516754</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0.32368753554352736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="9">
         <v>5450</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>5445.5307000000003</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="13">
         <f t="shared" si="1"/>
         <v>18363.683084184981</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" si="3"/>
+      <c r="E24" s="13">
+        <f t="shared" si="4"/>
         <v>67.579790094165219</v>
       </c>
       <c r="F24" s="11">
@@ -2280,27 +2565,31 @@
         <v>2.2761134214408751</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.086939996769665</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0.32458478068521252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="9">
         <v>5430</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>5425.4166999999998</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="13">
         <f t="shared" si="1"/>
         <v>18431.763960176551</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="3"/>
+      <c r="E25" s="13">
+        <f t="shared" si="4"/>
         <v>68.080875991570792</v>
       </c>
       <c r="F25" s="11">
@@ -2308,27 +2597,31 @@
         <v>2.2845518046822697</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.34126949974117</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0.32548840315131045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="9">
         <v>5400</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="13">
         <f t="shared" si="0"/>
         <v>5395.2457000000004</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="13">
         <f t="shared" si="1"/>
         <v>18534.837069607413</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" si="3"/>
+      <c r="E26" s="13">
+        <f t="shared" si="4"/>
         <v>103.07310943086122</v>
       </c>
       <c r="F26" s="11">
@@ -2336,27 +2629,31 @@
         <v>2.2973273512155941</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.748557527154652</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0.32685594868227891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="9">
         <v>5380</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="13">
         <f t="shared" si="0"/>
         <v>5375.1316999999999</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="13">
         <f t="shared" si="1"/>
         <v>18604.195316739868</v>
       </c>
-      <c r="E27" s="11">
-        <f t="shared" si="3"/>
+      <c r="E27" s="13">
+        <f t="shared" si="4"/>
         <v>69.35824713245529</v>
       </c>
       <c r="F27" s="11">
@@ -2364,27 +2661,31 @@
         <v>2.3059240600817881</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.998107232111899</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0.32777582488341117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="9">
         <v>5370</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="13">
         <f t="shared" si="0"/>
         <v>5365.0747000000001</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="13">
         <f t="shared" si="1"/>
         <v>18639.069461605071</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="3"/>
+      <c r="E28" s="13">
+        <f t="shared" si="4"/>
         <v>34.874144865203561</v>
       </c>
       <c r="F28" s="11">
@@ -2392,27 +2693,31 @@
         <v>2.3102465867135686</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.550276125433812</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0.32823824404404817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="9">
         <v>5350</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="13">
         <f t="shared" si="0"/>
         <v>5344.9606999999996</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="13">
         <f t="shared" si="1"/>
         <v>18709.211463425727</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="3"/>
+      <c r="E29" s="13">
+        <f t="shared" si="4"/>
         <v>70.142001820655423</v>
       </c>
       <c r="F29" s="11">
@@ -2420,27 +2725,31 @@
         <v>2.3189404391950577</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.407166043115389</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0.32916809067812125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="9">
         <v>5320</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="13">
         <f t="shared" si="0"/>
         <v>5314.7897000000003</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="13">
         <f t="shared" si="1"/>
         <v>18815.41992150696</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" si="3"/>
+      <c r="E30" s="13">
+        <f t="shared" si="4"/>
         <v>106.2084580812334</v>
       </c>
       <c r="F30" s="11">
@@ -2448,27 +2757,31 @@
         <v>2.3321046010791968</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.203534586503039</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0.33057552208013391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="9">
         <v>5300</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="13">
         <f t="shared" si="0"/>
         <v>5294.6756999999998</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="13">
         <f t="shared" si="1"/>
         <v>18886.8980209685</v>
       </c>
-      <c r="E31" s="11">
-        <f t="shared" si="3"/>
+      <c r="E31" s="13">
+        <f t="shared" si="4"/>
         <v>71.478099461539387</v>
       </c>
       <c r="F31" s="11">
@@ -2476,27 +2789,31 @@
         <v>2.3409640581269833</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.115101582618088</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0.33152236171503124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="9">
         <v>5280</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="13">
         <f t="shared" si="0"/>
         <v>5274.5617000000002</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="13">
         <f t="shared" si="1"/>
         <v>18958.921269230766</v>
       </c>
-      <c r="E32" s="11">
-        <f t="shared" si="3"/>
+      <c r="E32" s="13">
+        <f t="shared" si="4"/>
         <v>72.023248262266861</v>
       </c>
       <c r="F32" s="11">
@@ -2504,8 +2821,12 @@
         <v>2.3498910844361385</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.407787386383994</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0.33247613334963139</v>
       </c>
     </row>
   </sheetData>
